--- a/dist/data/profiles/xlsx/bluff/profile 19-1 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 19-1 graph.xlsx
@@ -2946,11 +2946,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="5827419"/>
-        <c:axId val="7356898"/>
+        <c:axId val="46089957"/>
+        <c:axId val="77318809"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="5827419"/>
+        <c:axId val="46089957"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2985,12 +2985,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7356898"/>
+        <c:crossAx val="77318809"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="7356898"/>
+        <c:axId val="77318809"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3034,7 +3034,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5827419"/>
+        <c:crossAx val="46089957"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
